--- a/Koordináták.xlsx
+++ b/Koordináták.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesza\Documents\Egyetem\4. félév\SzoftProjLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950986A-E75B-48D6-8E95-B275734A9F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B99956-4D48-41F8-9BDC-EA01226F003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{8BBCECD1-4B4C-41AB-BA0D-3B5A308CCF4B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{8BBCECD1-4B4C-41AB-BA0D-3B5A308CCF4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Villámháború" sheetId="1" r:id="rId1"/>
+    <sheet name="Hosszú hadjárat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="97">
   <si>
     <t>Mező</t>
   </si>
@@ -206,6 +207,126 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Ó3</t>
+  </si>
+  <si>
+    <t>Ó4</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>21.</t>
+  </si>
+  <si>
+    <t>22.</t>
+  </si>
+  <si>
+    <t>23.</t>
+  </si>
+  <si>
+    <t>24.</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>26.</t>
+  </si>
+  <si>
+    <t>27.</t>
+  </si>
+  <si>
+    <t>28.</t>
+  </si>
+  <si>
+    <t>29.</t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
+  <si>
+    <t>31.</t>
+  </si>
+  <si>
+    <t>32.</t>
+  </si>
+  <si>
+    <t>33.</t>
+  </si>
+  <si>
+    <t>34.</t>
+  </si>
+  <si>
+    <t>35.</t>
+  </si>
+  <si>
+    <t>36.</t>
+  </si>
+  <si>
+    <t>37.</t>
+  </si>
+  <si>
+    <t>38.</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>39.</t>
+  </si>
+  <si>
+    <t>40.</t>
   </si>
 </sst>
 </file>
@@ -366,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,12 +496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -392,7 +507,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -401,14 +536,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -725,134 +903,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB27D78-CD79-469F-9E13-8BBEF8467534}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="14"/>
-    <col min="2" max="2" width="10.44140625" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="14"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="10.44140625" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="4" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="9" t="s">
+      <c r="T1" s="15"/>
+      <c r="U1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="5"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="3">
@@ -917,10 +1095,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3">
@@ -985,10 +1163,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3">
@@ -1053,10 +1231,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3">
@@ -1121,10 +1299,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="3">
@@ -1189,10 +1367,10 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="3">
@@ -1257,10 +1435,10 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3">
@@ -1325,10 +1503,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3">
@@ -1393,10 +1571,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3">
@@ -1461,10 +1639,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3">
@@ -1529,10 +1707,10 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3">
@@ -1597,10 +1775,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="3">
@@ -1665,10 +1843,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="3">
@@ -1733,10 +1911,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="3">
@@ -1801,10 +1979,10 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3">
@@ -1869,10 +2047,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="3">
@@ -1937,10 +2115,10 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3">
@@ -2005,10 +2183,10 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="3">
@@ -2073,10 +2251,10 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="3">
@@ -2141,10 +2319,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="3">
@@ -2209,70 +2387,70 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>649</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>383</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>886</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>363</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>831</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="6">
         <v>530</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V23" s="7" t="s">
+      <c r="I23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2285,35 +2463,35 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
   </mergeCells>
@@ -2321,4 +2499,2177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB2E5F-F189-4429-989E-DE57C8CBFBDC}">
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="29" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:16" s="29" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>313</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>269</v>
+      </c>
+      <c r="H3" s="1">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3">
+        <v>172</v>
+      </c>
+      <c r="J3" s="2">
+        <v>63</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>269</v>
+      </c>
+      <c r="D4" s="1">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3">
+        <v>313</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>444</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>444</v>
+      </c>
+      <c r="J4" s="2">
+        <v>106</v>
+      </c>
+      <c r="K4" s="3">
+        <v>343</v>
+      </c>
+      <c r="L4" s="2">
+        <v>133</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
+        <v>572</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>771</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>771</v>
+      </c>
+      <c r="H5" s="1">
+        <v>123</v>
+      </c>
+      <c r="I5" s="3">
+        <v>653</v>
+      </c>
+      <c r="J5" s="2">
+        <v>54</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2">
+        <v>140</v>
+      </c>
+      <c r="G6" s="3">
+        <v>141</v>
+      </c>
+      <c r="H6" s="1">
+        <v>290</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>230</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>121</v>
+      </c>
+      <c r="D7" s="1">
+        <v>140</v>
+      </c>
+      <c r="E7" s="3">
+        <v>182</v>
+      </c>
+      <c r="F7" s="2">
+        <v>207</v>
+      </c>
+      <c r="G7" s="3">
+        <v>263</v>
+      </c>
+      <c r="H7" s="1">
+        <v>210</v>
+      </c>
+      <c r="I7" s="3">
+        <v>141</v>
+      </c>
+      <c r="J7" s="2">
+        <v>290</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>263</v>
+      </c>
+      <c r="D8" s="1">
+        <v>210</v>
+      </c>
+      <c r="E8" s="3">
+        <v>347</v>
+      </c>
+      <c r="F8" s="2">
+        <v>133</v>
+      </c>
+      <c r="G8" s="3">
+        <v>401</v>
+      </c>
+      <c r="H8" s="1">
+        <v>240</v>
+      </c>
+      <c r="I8" s="3">
+        <v>306</v>
+      </c>
+      <c r="J8" s="2">
+        <v>360</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>343</v>
+      </c>
+      <c r="D9" s="1">
+        <v>133</v>
+      </c>
+      <c r="E9" s="3">
+        <v>444</v>
+      </c>
+      <c r="F9" s="2">
+        <v>106</v>
+      </c>
+      <c r="G9" s="3">
+        <v>488</v>
+      </c>
+      <c r="H9" s="1">
+        <v>190</v>
+      </c>
+      <c r="I9" s="3">
+        <v>401</v>
+      </c>
+      <c r="J9" s="2">
+        <v>240</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>444</v>
+      </c>
+      <c r="D10" s="1">
+        <v>106</v>
+      </c>
+      <c r="E10" s="3">
+        <v>620</v>
+      </c>
+      <c r="F10" s="2">
+        <v>103</v>
+      </c>
+      <c r="G10" s="3">
+        <v>590</v>
+      </c>
+      <c r="H10" s="1">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>488</v>
+      </c>
+      <c r="J10" s="2">
+        <v>190</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>653</v>
+      </c>
+      <c r="D11" s="1">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3">
+        <v>771</v>
+      </c>
+      <c r="F11" s="2">
+        <v>123</v>
+      </c>
+      <c r="G11" s="3">
+        <v>673</v>
+      </c>
+      <c r="H11" s="1">
+        <v>170</v>
+      </c>
+      <c r="I11" s="3">
+        <v>707</v>
+      </c>
+      <c r="J11" s="2">
+        <v>253</v>
+      </c>
+      <c r="K11" s="3">
+        <v>590</v>
+      </c>
+      <c r="L11" s="2">
+        <v>200</v>
+      </c>
+      <c r="M11" s="3">
+        <v>620</v>
+      </c>
+      <c r="N11" s="2">
+        <v>103</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>230</v>
+      </c>
+      <c r="E12" s="3">
+        <v>141</v>
+      </c>
+      <c r="F12" s="2">
+        <v>290</v>
+      </c>
+      <c r="G12" s="3">
+        <v>74</v>
+      </c>
+      <c r="H12" s="1">
+        <v>423</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>377</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1">
+        <v>423</v>
+      </c>
+      <c r="E13" s="3">
+        <v>444</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>620</v>
+      </c>
+      <c r="H13" s="1">
+        <v>103</v>
+      </c>
+      <c r="I13" s="3">
+        <v>152</v>
+      </c>
+      <c r="J13" s="2">
+        <v>493</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <v>401</v>
+      </c>
+      <c r="D14" s="1">
+        <v>240</v>
+      </c>
+      <c r="E14" s="3">
+        <v>488</v>
+      </c>
+      <c r="F14" s="2">
+        <v>190</v>
+      </c>
+      <c r="G14" s="3">
+        <v>502</v>
+      </c>
+      <c r="H14" s="1">
+        <v>336</v>
+      </c>
+      <c r="I14" s="3">
+        <v>306</v>
+      </c>
+      <c r="J14" s="2">
+        <v>360</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>590</v>
+      </c>
+      <c r="D15" s="1">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>707</v>
+      </c>
+      <c r="F15" s="2">
+        <v>253</v>
+      </c>
+      <c r="G15" s="3">
+        <v>674</v>
+      </c>
+      <c r="H15" s="1">
+        <v>317</v>
+      </c>
+      <c r="I15" s="3">
+        <v>502</v>
+      </c>
+      <c r="J15" s="2">
+        <v>336</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>707</v>
+      </c>
+      <c r="D16" s="1">
+        <v>253</v>
+      </c>
+      <c r="E16" s="3">
+        <v>828</v>
+      </c>
+      <c r="F16" s="2">
+        <v>287</v>
+      </c>
+      <c r="G16" s="3">
+        <v>825</v>
+      </c>
+      <c r="H16" s="1">
+        <v>357</v>
+      </c>
+      <c r="I16" s="3">
+        <v>721</v>
+      </c>
+      <c r="J16" s="2">
+        <v>330</v>
+      </c>
+      <c r="K16" s="3">
+        <v>674</v>
+      </c>
+      <c r="L16" s="2">
+        <v>317</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3">
+        <v>872</v>
+      </c>
+      <c r="D17" s="1">
+        <v>167</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>230</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="1">
+        <v>397</v>
+      </c>
+      <c r="I17" s="3">
+        <v>926</v>
+      </c>
+      <c r="J17" s="2">
+        <v>401</v>
+      </c>
+      <c r="K17" s="3">
+        <v>828</v>
+      </c>
+      <c r="L17" s="2">
+        <v>287</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>377</v>
+      </c>
+      <c r="E18" s="3">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2">
+        <v>423</v>
+      </c>
+      <c r="G18" s="3">
+        <v>152</v>
+      </c>
+      <c r="H18" s="1">
+        <v>493</v>
+      </c>
+      <c r="I18" s="3">
+        <v>84</v>
+      </c>
+      <c r="J18" s="2">
+        <v>553</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>627</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="3">
+        <v>152</v>
+      </c>
+      <c r="D19" s="1">
+        <v>493</v>
+      </c>
+      <c r="E19" s="3">
+        <v>202</v>
+      </c>
+      <c r="F19" s="2">
+        <v>397</v>
+      </c>
+      <c r="G19" s="3">
+        <v>303</v>
+      </c>
+      <c r="H19" s="1">
+        <v>360</v>
+      </c>
+      <c r="I19" s="3">
+        <v>296</v>
+      </c>
+      <c r="J19" s="2">
+        <v>403</v>
+      </c>
+      <c r="K19" s="3">
+        <v>269</v>
+      </c>
+      <c r="L19" s="2">
+        <v>600</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3">
+        <v>404</v>
+      </c>
+      <c r="D20" s="1">
+        <v>553</v>
+      </c>
+      <c r="E20" s="3">
+        <v>424</v>
+      </c>
+      <c r="F20" s="2">
+        <v>467</v>
+      </c>
+      <c r="G20" s="3">
+        <v>529</v>
+      </c>
+      <c r="H20" s="1">
+        <v>440</v>
+      </c>
+      <c r="I20" s="3">
+        <v>579</v>
+      </c>
+      <c r="J20" s="2">
+        <v>487</v>
+      </c>
+      <c r="K20" s="3">
+        <v>539</v>
+      </c>
+      <c r="L20" s="2">
+        <v>537</v>
+      </c>
+      <c r="M20" s="3">
+        <v>535</v>
+      </c>
+      <c r="N20" s="2">
+        <v>600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>461</v>
+      </c>
+      <c r="P20" s="2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3">
+        <v>502</v>
+      </c>
+      <c r="D21" s="1">
+        <v>336</v>
+      </c>
+      <c r="E21" s="3">
+        <v>606</v>
+      </c>
+      <c r="F21" s="2">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>623</v>
+      </c>
+      <c r="H21" s="1">
+        <v>427</v>
+      </c>
+      <c r="I21" s="3">
+        <v>579</v>
+      </c>
+      <c r="J21" s="2">
+        <v>487</v>
+      </c>
+      <c r="K21" s="3">
+        <v>529</v>
+      </c>
+      <c r="L21" s="2">
+        <v>440</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1">
+        <v>502</v>
+      </c>
+      <c r="D22" s="1">
+        <v>336</v>
+      </c>
+      <c r="E22" s="3">
+        <v>674</v>
+      </c>
+      <c r="F22" s="2">
+        <v>317</v>
+      </c>
+      <c r="G22" s="3">
+        <v>721</v>
+      </c>
+      <c r="H22" s="1">
+        <v>330</v>
+      </c>
+      <c r="I22" s="3">
+        <v>680</v>
+      </c>
+      <c r="J22" s="2">
+        <v>493</v>
+      </c>
+      <c r="K22" s="3">
+        <v>623</v>
+      </c>
+      <c r="L22" s="2">
+        <v>427</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3">
+        <v>539</v>
+      </c>
+      <c r="D23" s="1">
+        <v>537</v>
+      </c>
+      <c r="E23" s="3">
+        <v>579</v>
+      </c>
+      <c r="F23" s="2">
+        <v>487</v>
+      </c>
+      <c r="G23" s="3">
+        <v>623</v>
+      </c>
+      <c r="H23" s="1">
+        <v>427</v>
+      </c>
+      <c r="I23" s="3">
+        <v>680</v>
+      </c>
+      <c r="J23" s="2">
+        <v>493</v>
+      </c>
+      <c r="K23" s="3">
+        <v>650</v>
+      </c>
+      <c r="L23" s="2">
+        <v>563</v>
+      </c>
+      <c r="M23" s="3">
+        <v>535</v>
+      </c>
+      <c r="N23" s="2">
+        <v>600</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3">
+        <v>828</v>
+      </c>
+      <c r="D24" s="1">
+        <v>287</v>
+      </c>
+      <c r="E24" s="3">
+        <v>926</v>
+      </c>
+      <c r="F24" s="2">
+        <v>401</v>
+      </c>
+      <c r="G24" s="3">
+        <v>825</v>
+      </c>
+      <c r="H24" s="1">
+        <v>440</v>
+      </c>
+      <c r="I24" s="3">
+        <v>825</v>
+      </c>
+      <c r="J24" s="2">
+        <v>357</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1">
+        <v>680</v>
+      </c>
+      <c r="D25" s="1">
+        <v>493</v>
+      </c>
+      <c r="E25" s="3">
+        <v>825</v>
+      </c>
+      <c r="F25" s="2">
+        <v>440</v>
+      </c>
+      <c r="G25" s="1">
+        <v>926</v>
+      </c>
+      <c r="H25" s="1">
+        <v>401</v>
+      </c>
+      <c r="I25" s="3">
+        <v>862</v>
+      </c>
+      <c r="J25" s="2">
+        <v>483</v>
+      </c>
+      <c r="K25" s="3">
+        <v>896</v>
+      </c>
+      <c r="L25" s="2">
+        <v>547</v>
+      </c>
+      <c r="M25" s="3">
+        <v>815</v>
+      </c>
+      <c r="N25" s="2">
+        <v>647</v>
+      </c>
+      <c r="O25" s="3">
+        <v>791</v>
+      </c>
+      <c r="P25" s="2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1">
+        <v>862</v>
+      </c>
+      <c r="D26" s="1">
+        <v>483</v>
+      </c>
+      <c r="E26" s="3">
+        <v>926</v>
+      </c>
+      <c r="F26" s="2">
+        <v>401</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="1">
+        <v>397</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>563</v>
+      </c>
+      <c r="K26" s="3">
+        <v>896</v>
+      </c>
+      <c r="L26" s="2">
+        <v>547</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1">
+        <v>553</v>
+      </c>
+      <c r="E27" s="3">
+        <v>152</v>
+      </c>
+      <c r="F27" s="2">
+        <v>493</v>
+      </c>
+      <c r="G27" s="3">
+        <v>269</v>
+      </c>
+      <c r="H27" s="1">
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>152</v>
+      </c>
+      <c r="J27" s="2">
+        <v>640</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1">
+        <v>152</v>
+      </c>
+      <c r="D28" s="1">
+        <v>640</v>
+      </c>
+      <c r="E28" s="3">
+        <v>269</v>
+      </c>
+      <c r="F28" s="2">
+        <v>600</v>
+      </c>
+      <c r="G28" s="3">
+        <v>273</v>
+      </c>
+      <c r="H28" s="1">
+        <v>700</v>
+      </c>
+      <c r="I28" s="3">
+        <v>185</v>
+      </c>
+      <c r="J28" s="2">
+        <v>700</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="3">
+        <v>461</v>
+      </c>
+      <c r="D29" s="1">
+        <v>633</v>
+      </c>
+      <c r="E29" s="3">
+        <v>535</v>
+      </c>
+      <c r="F29" s="2">
+        <v>600</v>
+      </c>
+      <c r="G29" s="3">
+        <v>650</v>
+      </c>
+      <c r="H29" s="1">
+        <v>563</v>
+      </c>
+      <c r="I29" s="3">
+        <v>586</v>
+      </c>
+      <c r="J29" s="2">
+        <v>700</v>
+      </c>
+      <c r="K29" s="3">
+        <v>512</v>
+      </c>
+      <c r="L29" s="2">
+        <v>700</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>145</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>172</v>
+      </c>
+      <c r="H30" s="1">
+        <v>63</v>
+      </c>
+      <c r="I30" s="3">
+        <v>121</v>
+      </c>
+      <c r="J30" s="2">
+        <v>140</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>110</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3">
+        <v>775</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>227</v>
+      </c>
+      <c r="I31" s="3">
+        <v>872</v>
+      </c>
+      <c r="J31" s="2">
+        <v>167</v>
+      </c>
+      <c r="K31" s="3">
+        <v>229</v>
+      </c>
+      <c r="L31" s="2">
+        <v>117</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>627</v>
+      </c>
+      <c r="E32" s="3">
+        <v>84</v>
+      </c>
+      <c r="F32" s="2">
+        <v>553</v>
+      </c>
+      <c r="G32" s="1">
+        <v>152</v>
+      </c>
+      <c r="H32" s="1">
+        <v>640</v>
+      </c>
+      <c r="I32" s="3">
+        <v>185</v>
+      </c>
+      <c r="J32" s="2">
+        <v>700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>700</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="3">
+        <v>896</v>
+      </c>
+      <c r="D33" s="1">
+        <v>547</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>563</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="1">
+        <v>700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>789</v>
+      </c>
+      <c r="J33" s="2">
+        <v>700</v>
+      </c>
+      <c r="K33" s="3">
+        <v>815</v>
+      </c>
+      <c r="L33" s="2">
+        <v>647</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3">
+        <v>172</v>
+      </c>
+      <c r="D34" s="1">
+        <v>63</v>
+      </c>
+      <c r="E34" s="3">
+        <v>269</v>
+      </c>
+      <c r="F34" s="2">
+        <v>56</v>
+      </c>
+      <c r="G34" s="3">
+        <v>343</v>
+      </c>
+      <c r="H34" s="1">
+        <v>133</v>
+      </c>
+      <c r="I34" s="3">
+        <v>263</v>
+      </c>
+      <c r="J34" s="2">
+        <v>210</v>
+      </c>
+      <c r="K34" s="3">
+        <v>182</v>
+      </c>
+      <c r="L34" s="2">
+        <v>207</v>
+      </c>
+      <c r="M34" s="3">
+        <v>121</v>
+      </c>
+      <c r="N34" s="2">
+        <v>140</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3">
+        <v>673</v>
+      </c>
+      <c r="D35" s="1">
+        <v>170</v>
+      </c>
+      <c r="E35" s="3">
+        <v>229</v>
+      </c>
+      <c r="F35" s="2">
+        <v>117</v>
+      </c>
+      <c r="G35" s="3">
+        <v>872</v>
+      </c>
+      <c r="H35" s="1">
+        <v>167</v>
+      </c>
+      <c r="I35" s="3">
+        <v>828</v>
+      </c>
+      <c r="J35" s="2">
+        <v>287</v>
+      </c>
+      <c r="K35" s="3">
+        <v>707</v>
+      </c>
+      <c r="L35" s="2">
+        <v>253</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1">
+        <v>296</v>
+      </c>
+      <c r="D36" s="1">
+        <v>403</v>
+      </c>
+      <c r="E36" s="3">
+        <v>424</v>
+      </c>
+      <c r="F36" s="2">
+        <v>467</v>
+      </c>
+      <c r="G36" s="3">
+        <v>404</v>
+      </c>
+      <c r="H36" s="1">
+        <v>553</v>
+      </c>
+      <c r="I36" s="3">
+        <v>269</v>
+      </c>
+      <c r="J36" s="2">
+        <v>600</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1">
+        <v>680</v>
+      </c>
+      <c r="D37" s="1">
+        <v>493</v>
+      </c>
+      <c r="E37" s="3">
+        <v>791</v>
+      </c>
+      <c r="F37" s="2">
+        <v>567</v>
+      </c>
+      <c r="G37" s="1">
+        <v>815</v>
+      </c>
+      <c r="H37" s="1">
+        <v>647</v>
+      </c>
+      <c r="I37" s="3">
+        <v>185</v>
+      </c>
+      <c r="J37" s="2">
+        <v>700</v>
+      </c>
+      <c r="K37" s="3">
+        <v>586</v>
+      </c>
+      <c r="L37" s="2">
+        <v>700</v>
+      </c>
+      <c r="M37" s="3">
+        <v>650</v>
+      </c>
+      <c r="N37" s="2">
+        <v>563</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1">
+        <v>290</v>
+      </c>
+      <c r="E38" s="3">
+        <v>263</v>
+      </c>
+      <c r="F38" s="2">
+        <v>210</v>
+      </c>
+      <c r="G38" s="3">
+        <v>303</v>
+      </c>
+      <c r="H38" s="1">
+        <v>360</v>
+      </c>
+      <c r="I38" s="3">
+        <v>202</v>
+      </c>
+      <c r="J38" s="2">
+        <v>397</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3">
+        <v>444</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>572</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>653</v>
+      </c>
+      <c r="H39" s="1">
+        <v>54</v>
+      </c>
+      <c r="I39" s="3">
+        <v>620</v>
+      </c>
+      <c r="J39" s="2">
+        <v>103</v>
+      </c>
+      <c r="K39" s="3">
+        <v>444</v>
+      </c>
+      <c r="L39" s="2">
+        <v>106</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3">
+        <v>488</v>
+      </c>
+      <c r="D40" s="1">
+        <v>190</v>
+      </c>
+      <c r="E40" s="3">
+        <v>590</v>
+      </c>
+      <c r="F40" s="2">
+        <v>200</v>
+      </c>
+      <c r="G40" s="3">
+        <v>606</v>
+      </c>
+      <c r="H40" s="1">
+        <v>300</v>
+      </c>
+      <c r="I40" s="3">
+        <v>502</v>
+      </c>
+      <c r="J40" s="2">
+        <v>336</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="1">
+        <v>306</v>
+      </c>
+      <c r="D41" s="1">
+        <v>360</v>
+      </c>
+      <c r="E41" s="3">
+        <v>502</v>
+      </c>
+      <c r="F41" s="2">
+        <v>336</v>
+      </c>
+      <c r="G41" s="3">
+        <v>529</v>
+      </c>
+      <c r="H41" s="1">
+        <v>440</v>
+      </c>
+      <c r="I41" s="3">
+        <v>424</v>
+      </c>
+      <c r="J41" s="2">
+        <v>467</v>
+      </c>
+      <c r="K41" s="3">
+        <v>296</v>
+      </c>
+      <c r="L41" s="2">
+        <v>403</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="3">
+        <v>721</v>
+      </c>
+      <c r="D42" s="1">
+        <v>330</v>
+      </c>
+      <c r="E42" s="3">
+        <v>825</v>
+      </c>
+      <c r="F42" s="2">
+        <v>357</v>
+      </c>
+      <c r="G42" s="3">
+        <v>825</v>
+      </c>
+      <c r="H42" s="1">
+        <v>440</v>
+      </c>
+      <c r="I42" s="3">
+        <v>680</v>
+      </c>
+      <c r="J42" s="2">
+        <v>493</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="4">
+        <v>269</v>
+      </c>
+      <c r="D43" s="6">
+        <v>600</v>
+      </c>
+      <c r="E43" s="4">
+        <v>404</v>
+      </c>
+      <c r="F43" s="5">
+        <v>553</v>
+      </c>
+      <c r="G43" s="4">
+        <v>461</v>
+      </c>
+      <c r="H43" s="6">
+        <v>633</v>
+      </c>
+      <c r="I43" s="4">
+        <v>512</v>
+      </c>
+      <c r="J43" s="5">
+        <v>700</v>
+      </c>
+      <c r="K43" s="4">
+        <v>273</v>
+      </c>
+      <c r="L43" s="5">
+        <v>700</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="32"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C47" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Koordináták.xlsx
+++ b/Koordináták.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesza\Documents\Egyetem\4. félév\SzoftProjLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B99956-4D48-41F8-9BDC-EA01226F003F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9BB695-4E49-4A83-8E73-499E7A651A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{8BBCECD1-4B4C-41AB-BA0D-3B5A308CCF4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8BBCECD1-4B4C-41AB-BA0D-3B5A308CCF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Villámháború" sheetId="1" r:id="rId1"/>
@@ -515,37 +515,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -555,15 +531,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,6 +552,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,56 +915,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="18" t="s">
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="14" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="18" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="15"/>
+      <c r="V1" s="27"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2482,11 +2482,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="Q1:R1"/>
@@ -2494,6 +2489,11 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2505,100 +2505,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFB2E5F-F189-4429-989E-DE57C8CBFBDC}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="29" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="19" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" s="29" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="22" t="s">
+      <c r="P1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" s="18" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2681,7 +2681,7 @@
       <c r="K4" s="3">
         <v>343</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>133</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2848,7 +2848,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2861,9 +2861,9 @@
         <v>210</v>
       </c>
       <c r="E8" s="3">
-        <v>347</v>
-      </c>
-      <c r="F8" s="2">
+        <v>343</v>
+      </c>
+      <c r="F8" s="1">
         <v>133</v>
       </c>
       <c r="G8" s="3">
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2948,7 +2948,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2998,7 +2998,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -3017,7 +3017,7 @@
         <v>123</v>
       </c>
       <c r="G11" s="3">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="H11" s="1">
         <v>170</v>
@@ -3048,7 +3048,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -3111,16 +3111,16 @@
         <v>423</v>
       </c>
       <c r="E13" s="3">
-        <v>444</v>
+        <v>141</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G13" s="3">
-        <v>620</v>
-      </c>
-      <c r="H13" s="1">
-        <v>103</v>
+        <v>202</v>
+      </c>
+      <c r="H13" s="2">
+        <v>397</v>
       </c>
       <c r="I13" s="3">
         <v>152</v>
@@ -3148,7 +3148,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -3198,7 +3198,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3223,10 +3223,10 @@
         <v>317</v>
       </c>
       <c r="I15" s="3">
-        <v>502</v>
-      </c>
-      <c r="J15" s="2">
-        <v>336</v>
+        <v>606</v>
+      </c>
+      <c r="J15" s="1">
+        <v>300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>34</v>
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -3348,7 +3348,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="17" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3398,7 +3398,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3417,9 +3417,9 @@
         <v>397</v>
       </c>
       <c r="G19" s="3">
-        <v>303</v>
-      </c>
-      <c r="H19" s="1">
+        <v>306</v>
+      </c>
+      <c r="H19" s="2">
         <v>360</v>
       </c>
       <c r="I19" s="3">
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3498,7 +3498,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3548,17 +3548,17 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1">
-        <v>502</v>
-      </c>
-      <c r="D22" s="1">
-        <v>336</v>
+      <c r="C22" s="3">
+        <v>606</v>
+      </c>
+      <c r="D22" s="2">
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>674</v>
@@ -3598,7 +3598,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3648,7 +3648,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3698,7 +3698,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3748,7 +3748,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3798,7 +3798,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3848,7 +3848,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3898,7 +3898,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3948,7 +3948,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3998,14 +3998,14 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="3">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>1000</v>
       </c>
       <c r="H31" s="1">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I31" s="3">
         <v>872</v>
@@ -4029,10 +4029,10 @@
         <v>167</v>
       </c>
       <c r="K31" s="3">
-        <v>229</v>
+        <v>771</v>
       </c>
       <c r="L31" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>34</v>
@@ -4048,7 +4048,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -4098,7 +4098,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4198,23 +4198,23 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="D35" s="1">
         <v>170</v>
       </c>
       <c r="E35" s="3">
-        <v>229</v>
+        <v>771</v>
       </c>
       <c r="F35" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G35" s="3">
         <v>872</v>
@@ -4248,7 +4248,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4298,7 +4298,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4323,7 +4323,7 @@
         <v>647</v>
       </c>
       <c r="I37" s="3">
-        <v>185</v>
+        <v>789</v>
       </c>
       <c r="J37" s="2">
         <v>700</v>
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4367,9 +4367,9 @@
         <v>210</v>
       </c>
       <c r="G38" s="3">
-        <v>303</v>
-      </c>
-      <c r="H38" s="1">
+        <v>306</v>
+      </c>
+      <c r="H38" s="2">
         <v>360</v>
       </c>
       <c r="I38" s="3">
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4448,7 +4448,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4498,16 +4498,16 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>306</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>360</v>
       </c>
       <c r="E41" s="3">
@@ -4548,10 +4548,10 @@
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="3">
@@ -4598,10 +4598,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="4">
@@ -4648,13 +4648,13 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C47" s="33"/>
+      <c r="C47" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
